--- a/_3_radiant_py3/pos_rscs.xlsx
+++ b/_3_radiant_py3/pos_rscs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wulic\Documents\GitHub\GGMR\_3_radiant_py3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50AB06E-8727-4F1C-B9CF-AB834527593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7809FE70-8973-41F1-BB1B-FE6514716A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35670" yWindow="10050" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Jaewan</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,67 +346,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="B1" s="1">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1">
-        <v>300</v>
-      </c>
-      <c r="G1" s="1">
-        <v>75300</v>
-      </c>
-      <c r="H1" s="1">
-        <v>377000</v>
-      </c>
-      <c r="I1" s="1">
-        <v>20000000</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2630</v>
-      </c>
-      <c r="K1" s="1">
-        <v>3360000</v>
-      </c>
-      <c r="M1" s="1">
-        <v>5370</v>
-      </c>
-    </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="B2">
-        <v>1.413</v>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="C2" s="1">
-        <v>0.87</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>11.38</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>41.7</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1">
         <v>300</v>
@@ -418,25 +388,28 @@
       <c r="K2" s="1">
         <v>3360000</v>
       </c>
+      <c r="M2" s="1">
+        <v>5370</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5.67</v>
+      <c r="A3" s="1">
+        <v>0.9</v>
       </c>
       <c r="B3">
-        <v>8.24</v>
-      </c>
-      <c r="C3">
-        <v>9.6300000000000008</v>
+        <v>1.413</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.87</v>
       </c>
       <c r="D3" s="1">
-        <v>15.7</v>
+        <v>11.38</v>
       </c>
       <c r="E3" s="1">
-        <v>39.22</v>
+        <v>41.7</v>
       </c>
       <c r="F3" s="1">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G3" s="1">
         <v>75300</v>
@@ -448,10 +421,83 @@
         <v>20000000</v>
       </c>
       <c r="J3" s="1">
-        <v>2633</v>
+        <v>2630</v>
       </c>
       <c r="K3" s="1">
         <v>3360000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.67</v>
+      </c>
+      <c r="B4">
+        <v>8.24</v>
+      </c>
+      <c r="C4">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>39.22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>294</v>
+      </c>
+      <c r="G4" s="1">
+        <v>75300</v>
+      </c>
+      <c r="H4" s="1">
+        <v>377000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2633</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.89E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>885000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4120000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>28000000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2700000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.42E+16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
